--- a/media/output/result/bpic2012_cancelled_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2012_cancelled_complex_evaluation_weighted_edit_distance.xlsx
@@ -650,25 +650,25 @@
         <v>937</v>
       </c>
       <c r="C8" t="n">
-        <v>1326</v>
+        <v>663</v>
       </c>
       <c r="D8" t="n">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="G8" t="n">
         <v>0.7075773745997865</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0.82875</v>
+        <v>0.5859478568272205</v>
       </c>
     </row>
     <row r="9">
@@ -679,25 +679,25 @@
         <v>937</v>
       </c>
       <c r="C9" t="n">
-        <v>1326</v>
+        <v>663</v>
       </c>
       <c r="D9" t="n">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="G9" t="n">
         <v>0.7075773745997865</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0.82875</v>
+        <v>0.5859478568272205</v>
       </c>
     </row>
     <row r="10">
@@ -708,25 +708,25 @@
         <v>937</v>
       </c>
       <c r="C10" t="n">
-        <v>1326</v>
+        <v>663</v>
       </c>
       <c r="D10" t="n">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="G10" t="n">
         <v>0.7075773745997865</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.82875</v>
+        <v>0.5859478568272205</v>
       </c>
     </row>
     <row r="11">

--- a/media/output/result/bpic2012_cancelled_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2012_cancelled_complex_evaluation_weighted_edit_distance.xlsx
@@ -650,25 +650,25 @@
         <v>937</v>
       </c>
       <c r="C8" t="n">
-        <v>663</v>
+        <v>1326</v>
       </c>
       <c r="D8" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="E8" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0.7075773745997865</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5859478568272205</v>
+        <v>0.82875</v>
       </c>
     </row>
     <row r="9">
@@ -679,25 +679,25 @@
         <v>937</v>
       </c>
       <c r="C9" t="n">
-        <v>663</v>
+        <v>1326</v>
       </c>
       <c r="D9" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="E9" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0.7075773745997865</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5859478568272205</v>
+        <v>0.82875</v>
       </c>
     </row>
     <row r="10">
@@ -708,25 +708,25 @@
         <v>937</v>
       </c>
       <c r="C10" t="n">
-        <v>663</v>
+        <v>1326</v>
       </c>
       <c r="D10" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="E10" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0.7075773745997865</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5859478568272205</v>
+        <v>0.82875</v>
       </c>
     </row>
     <row r="11">
